--- a/vagus-nerve/source/vagus-nerve.xlsx
+++ b/vagus-nerve/source/vagus-nerve.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -1733,7 +1733,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="60.14"/>
+    <col customWidth="1" min="2" max="2" width="77.14"/>
     <col customWidth="1" min="3" max="3" width="18.57"/>
     <col customWidth="1" min="4" max="4" width="11.29"/>
     <col customWidth="1" min="5" max="5" width="13.29"/>
@@ -3000,8 +3000,8 @@
         <v>193</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="E2" s="16" t="s">
-        <v>19</v>
+      <c r="E2" s="25">
+        <v>229.0</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>172</v>
@@ -3029,8 +3029,8 @@
         <v>196</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
+      <c r="E3" s="25">
+        <v>229.0</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>173</v>
@@ -3060,8 +3060,8 @@
         <v>193</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
+      <c r="E4" s="25">
+        <v>229.0</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>175</v>
@@ -3089,8 +3089,8 @@
         <v>196</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
+      <c r="E5" s="25">
+        <v>229.0</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>176</v>
@@ -3120,8 +3120,8 @@
         <v>193</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
-        <v>19</v>
+      <c r="E6" s="25">
+        <v>229.0</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>178</v>
@@ -3149,8 +3149,8 @@
         <v>196</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
+      <c r="E7" s="25">
+        <v>229.0</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>179</v>
@@ -3180,8 +3180,8 @@
         <v>193</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
+      <c r="E8" s="25">
+        <v>229.0</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>181</v>
@@ -3209,8 +3209,8 @@
         <v>196</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
+      <c r="E9" s="25">
+        <v>229.0</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>182</v>
@@ -3240,8 +3240,8 @@
         <v>196</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="20" t="s">
-        <v>19</v>
+      <c r="E10" s="25">
+        <v>229.0</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>197</v>
@@ -3271,8 +3271,8 @@
         <v>196</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
+      <c r="E11" s="25">
+        <v>229.0</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>217</v>
@@ -3302,8 +3302,8 @@
         <v>196</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
+      <c r="E12" s="25">
+        <v>229.0</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>217</v>
@@ -3333,8 +3333,8 @@
         <v>196</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="20" t="s">
-        <v>19</v>
+      <c r="E13" s="25">
+        <v>229.0</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>226</v>
@@ -3363,8 +3363,8 @@
       <c r="C14" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>19</v>
+      <c r="E14" s="25">
+        <v>229.0</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>226</v>
@@ -3391,8 +3391,8 @@
         <v>196</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="8" t="s">
-        <v>19</v>
+      <c r="E15" s="25">
+        <v>229.0</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>226</v>
@@ -3422,8 +3422,8 @@
         <v>196</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="20" t="s">
-        <v>19</v>
+      <c r="E16" s="25">
+        <v>229.0</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>226</v>

--- a/vagus-nerve/source/vagus-nerve.xlsx
+++ b/vagus-nerve/source/vagus-nerve.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -926,13 +926,19 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1035,6 +1041,11 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1068,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1300,6 +1311,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,6 +1700,14 @@
         <v>291</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -1696,8 +1721,9 @@
     <hyperlink r:id="rId9" ref="B10"/>
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
